--- a/biology/Botanique/Phalaenopsis_amboinensis/Phalaenopsis_amboinensis.xlsx
+++ b/biology/Botanique/Phalaenopsis_amboinensis/Phalaenopsis_amboinensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phalaenopsis amboinensis est une espèce de plantes à fleurs de la famille des Orchidaceae (les orchidées) et du genre Phalaenopsis.
 Elle est communément appelée phalaenopsis de l'île d'Amboine.
@@ -516,7 +528,9 @@
           <t>Description générale</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une orchidée épiphyte à tige courte complètement recouverte par l'imbrication de la base des feuilles. Les racines sont charnues, assez nombreuses, de couleur gris argenté, aux extrémités vertes.
 Les feuilles sont au nombre de  3 à 4, mais plus abondantes en culture, 6 voire plus. Elles sont charnues, longues de 25 cm et plus, larges de 8 cm voire plus, d'un joli vert brillant, légèrement carénées à la face inférieure. Le limbe foliaire est plus ou moins ondulé.
@@ -551,7 +565,9 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Origines : archipel des Moluques, Célèbes (Sulawesi)
 </t>
@@ -582,7 +598,9 @@
           <t>Variétés botaniques, horticoles et sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Phalaenopsis amboinensis var. alba
 Phalaenopsis amboinensis var. flava
@@ -614,7 +632,9 @@
           <t>Hybrides primaires</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phalaenopsis 'Alice Millard' = Phalaenopsis stuartiana × Phal. amboinensis. (Dr Henry M Wallbrunn, 1969)
@@ -675,7 +695,9 @@
           <t>Hybrides secondaires(Descendance)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Phalaenopsis 'Allspice' = Phalaenopsis 'Spica' × Phal. amboinensis.
